--- a/faturas.xlsx
+++ b/faturas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,74 +436,111 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>uc</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>venc</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>emissao</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>valor_total</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>nota_fiscal</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cod_barras</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Item</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>uc</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>venc</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>emissao</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>valor_total</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>nota_fiscal</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cod_barras</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>0002616081</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20/08/2025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>963,31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>030.470.044</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>34191.09123 56416.152934 85972.140009 4 11790000226162</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>08.2025 - Energisa - Inst 102616081-2.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0002872694</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>11/07/2025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>380,50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>028.722.338</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>34191.09115 38025.002932 85972.140009 1 11390000038050</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>1 2872694.pdf</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0002872694</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>11/07/2025</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10/06/2025</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>380,50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>028.722.338</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>34191.09115 38025.002932 85972.140009 1 11390000038050</t>
         </is>
       </c>
     </row>

--- a/faturas.xlsx
+++ b/faturas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,35 +510,146 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>0003340074</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>26/08/2025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>19/08/2025</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>908,91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>030.663.374</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>34191.09123 70053.972934 85972.140009 1 11850000090891</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>08.2025 - Energisa - Inst 103340074-8.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0000893797</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07/08/2025</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>014.775.807</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>74593.10046 27628.019005 01374.441762 7 12060000000000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>08.2025 - Energisa - Inst 8893797-1.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>893797</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29,53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>005.598.958</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>83650000000-2 29530012000-9 72680172025-1 09200002019-5</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>09.2025 - Energisa - Inst 8893797-1 Desligamento.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>0002872694</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>11/07/2025</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>10/06/2025</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>380,50</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>028.722.338</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>34191.09115 38025.002932 85972.140009 1 11390000038050</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>1 2872694.pdf</t>
         </is>

--- a/faturas.xlsx
+++ b/faturas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>endereco</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Item</t>
         </is>
       </c>
@@ -473,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0002616081</t>
+          <t>2927439</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,170 +493,531 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>963,31</t>
+          <t>Não encontrado</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>030.470.044</t>
+          <t>011.516.034</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>34191.09123 56416.152934 85972.140009 4 11790000226162</t>
+          <t>Não encontrado</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08.2025 - Energisa - Inst 102616081-2.pdf</t>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>08.2025 - Energisa - Inst 102927439-6.pdf</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0003340074</t>
+          <t>0000893797</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26/08/2025</t>
+          <t>16/09/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19/08/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>908,91</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>030.663.374</t>
+          <t>014.775.807</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>34191.09123 70053.972934 85972.140009 1 11850000090891</t>
+          <t>74593.10046 27628.019005 01374.441762 7 12060000000000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08.2025 - Energisa - Inst 103340074-8.pdf</t>
+          <t>RUA ESTRELA 334 CASA LOTERICA - CENTRO 8/893797-1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>08.2025 - Energisa - Inst 8893797-1.pdf</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0000893797</t>
+          <t>0002872694</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>380,50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>014.775.807</t>
+          <t>028.722.338</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>74593.10046 27628.019005 01374.441762 7 12060000000000</t>
+          <t>34191.09115 38025.002932 85972.140009 1 11390000038050</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08.2025 - Energisa - Inst 8893797-1.pdf</t>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1 2872694.pdf</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>893797</t>
+          <t>0002906777</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>11/12/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18/09/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29,53</t>
+          <t>50,32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>005.598.958</t>
+          <t>033.133.239</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>83650000000-2 29530012000-9 72680172025-1 09200002019-5</t>
+          <t>34191.09149 39536.612938 85972.140009 7 12920000005032</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>09.2025 - Energisa - Inst 8893797-1 Desligamento.pdf</t>
+          <t>RUA ELIAS DE OLIVEIRA SOBRINHO 2010 QUADRA 36 - LOTEAMENTO SANTO ANTON1IO0/2906777-4</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>10-2906777 1.pdf</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0002872694</t>
+          <t>0002923809</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>11/12/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>380,50</t>
+          <t>279,95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>028.722.338</t>
+          <t>033.079.998</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>34191.09115 38025.002932 85972.140009 1 11390000038050</t>
+          <t>34191.09149 36031.752938 85972.140009 5 12920000027995</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1 2872694.pdf</t>
+          <t>RUA OLAVO BILAC 339 QUADRA 03 - SANTA MONICA 10/2923809-4</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>10-2923809.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0002923811</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>321,19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>033.080.000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>34191.09149 36031.912938 85972.140009 1 12920000032119</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>RUA OLAVO BILAC 309 QUADRA 03 - SANTA MONICA 10/2923811-0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>10-2923811.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0002923814</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>50,32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>033.080.001</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>34191.09149 36032.092938 85972.140009 7 12920000005032</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>RUA OLAVO BILAC 350 QUADRA 04 - SANTA MONICA 10/2923814-4</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>10-2923814.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0002923815</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>033.080.002</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>34191.09131 71908.582936 85972.140009 1 12620000005310</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>RUA OLAVO BILAC 329 QUADRA 03 - SANTA MONICA 10/2923815-1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>10-2923815.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0002924663</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>50,32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>033.263.482</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34191.09149 49236.712938 85972.140009 3 12920000005032</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>RUA EUCLIDES DA CUNHA 250 QUADRA 06 - SANTA MONICA 10/2924663-4</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>10-2924663.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>0002924814</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>50,32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>033.263.562</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>34191.09149 49236.972938 85972.140009 1 12920000005032</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>RUA EUCLIDES DA CUNHA 249 QUADRA 05 - SANTA MONICA 10/2924814-3</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>10-2924814.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0002924930</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>50,32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>033.263.566</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>34191.09149 49237.132938 85972.140009 6 12920000005032</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>RUA CASTRO ALVES 249 QUADRA 06 - SANTA MONICA 10/2924930-7</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>10-2924930.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>0003453505</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>01/12/2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>411,92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>033.194.870</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>34191.09149 45311.512938 85972.140009 1 12820000041192</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>RUA APARECIDA MORAES DE PAULA 1861 QUADRA 13 - LOTEAMENTO SANTO ANTO1NIO0/3453505-4</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>10-3453505.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0003457103</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>24/10/2025</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>51,26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>032.440.199</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>34191.09131 92296.212936 85972.140009 1 12510000005126</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>RUA ALBINO BARBOSA DO PRADO 1327 QUADRA 4 - LOTEAMENTO SANTO ANTONIO10/3457103-4</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>10-3457103.pdf</t>
         </is>
       </c>
     </row>
